--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.68085433333333</v>
+        <v>25.885064</v>
       </c>
       <c r="H2">
-        <v>89.042563</v>
+        <v>77.655192</v>
       </c>
       <c r="I2">
-        <v>0.667937789806913</v>
+        <v>0.6277100174260535</v>
       </c>
       <c r="J2">
-        <v>0.7452875499674176</v>
+        <v>0.708782703696622</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.72440700000001</v>
+        <v>24.282086</v>
       </c>
       <c r="N2">
-        <v>119.173221</v>
+        <v>72.84625800000001</v>
       </c>
       <c r="O2">
-        <v>0.4718104890356355</v>
+        <v>0.7019069247021911</v>
       </c>
       <c r="P2">
-        <v>0.5693086397548175</v>
+        <v>0.7690865060256457</v>
       </c>
       <c r="Q2">
-        <v>1179.054337645047</v>
+        <v>628.5433501635041</v>
       </c>
       <c r="R2">
-        <v>10611.48903880542</v>
+        <v>5656.890151471536</v>
       </c>
       <c r="S2">
-        <v>0.3151400552541812</v>
+        <v>0.44059400793628</v>
       </c>
       <c r="T2">
-        <v>0.4242986412981511</v>
+        <v>0.5451152131174455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.68085433333333</v>
+        <v>25.885064</v>
       </c>
       <c r="H3">
-        <v>89.042563</v>
+        <v>77.655192</v>
       </c>
       <c r="I3">
-        <v>0.667937789806913</v>
+        <v>0.6277100174260535</v>
       </c>
       <c r="J3">
-        <v>0.7452875499674176</v>
+        <v>0.708782703696622</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.398029</v>
       </c>
       <c r="O3">
-        <v>0.01345290251278239</v>
+        <v>0.03274155942833552</v>
       </c>
       <c r="P3">
-        <v>0.01623290242224319</v>
+        <v>0.0358752573259675</v>
       </c>
       <c r="Q3">
-        <v>33.61880125648078</v>
+        <v>29.31939937961867</v>
       </c>
       <c r="R3">
-        <v>302.569211308327</v>
+        <v>263.874594416568</v>
       </c>
       <c r="S3">
-        <v>0.008985701970875738</v>
+        <v>0.02055220483931665</v>
       </c>
       <c r="T3">
-        <v>0.01209818007513378</v>
+        <v>0.02542776188331129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.68085433333333</v>
+        <v>25.885064</v>
       </c>
       <c r="H4">
-        <v>89.042563</v>
+        <v>77.655192</v>
       </c>
       <c r="I4">
-        <v>0.667937789806913</v>
+        <v>0.6277100174260535</v>
       </c>
       <c r="J4">
-        <v>0.7452875499674176</v>
+        <v>0.708782703696622</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05956966666666667</v>
+        <v>0.08263666666666666</v>
       </c>
       <c r="N4">
-        <v>0.178709</v>
+        <v>0.24791</v>
       </c>
       <c r="O4">
-        <v>0.0007075144900637483</v>
+        <v>0.00238872593432212</v>
       </c>
       <c r="P4">
-        <v>0.0008537201298095625</v>
+        <v>0.002617351130223021</v>
       </c>
       <c r="Q4">
-        <v>1.768078599018555</v>
+        <v>2.139055405413333</v>
       </c>
       <c r="R4">
-        <v>15.912707391167</v>
+        <v>19.25149864872</v>
       </c>
       <c r="S4">
-        <v>0.0004725756647495451</v>
+        <v>0.001499427197859404</v>
       </c>
       <c r="T4">
-        <v>0.0006362669839036346</v>
+        <v>0.001855133210602882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.68085433333333</v>
+        <v>25.885064</v>
       </c>
       <c r="H5">
-        <v>89.042563</v>
+        <v>77.655192</v>
       </c>
       <c r="I5">
-        <v>0.667937789806913</v>
+        <v>0.6277100174260535</v>
       </c>
       <c r="J5">
-        <v>0.7452875499674176</v>
+        <v>0.708782703696622</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.257328</v>
+        <v>9.065459499999999</v>
       </c>
       <c r="N5">
-        <v>86.514656</v>
+        <v>18.130919</v>
       </c>
       <c r="O5">
-        <v>0.513771321446155</v>
+        <v>0.2620495124948187</v>
       </c>
       <c r="P5">
-        <v>0.4132936972997982</v>
+        <v>0.1914201982035095</v>
       </c>
       <c r="Q5">
-        <v>1283.914451217221</v>
+        <v>234.659999346908</v>
       </c>
       <c r="R5">
-        <v>7703.486707303328</v>
+        <v>1407.959996081448</v>
       </c>
       <c r="S5">
-        <v>0.3431672809129218</v>
+        <v>0.1644911040546115</v>
       </c>
       <c r="T5">
-        <v>0.3080226470775421</v>
+        <v>0.1356753256248267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.68085433333333</v>
+        <v>25.885064</v>
       </c>
       <c r="H6">
-        <v>89.042563</v>
+        <v>77.655192</v>
       </c>
       <c r="I6">
-        <v>0.667937789806913</v>
+        <v>0.6277100174260535</v>
       </c>
       <c r="J6">
-        <v>0.7452875499674176</v>
+        <v>0.708782703696622</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02170333333333333</v>
+        <v>0.03159433333333334</v>
       </c>
       <c r="N6">
-        <v>0.06511</v>
+        <v>0.09478300000000001</v>
       </c>
       <c r="O6">
-        <v>0.0002577725153632478</v>
+        <v>0.0009132774403325944</v>
       </c>
       <c r="P6">
-        <v>0.0003110403933316207</v>
+        <v>0.001000687314654224</v>
       </c>
       <c r="Q6">
-        <v>0.6441734752144445</v>
+        <v>0.8178213403706667</v>
       </c>
       <c r="R6">
-        <v>5.79756127693</v>
+        <v>7.360392063336</v>
       </c>
       <c r="S6">
-        <v>0.0001721760041846963</v>
+        <v>0.0005732733979859943</v>
       </c>
       <c r="T6">
-        <v>0.0002318145326870255</v>
+        <v>0.000709269860435533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.632032</v>
       </c>
       <c r="I7">
-        <v>0.01224241318136986</v>
+        <v>0.01319220014496747</v>
       </c>
       <c r="J7">
-        <v>0.01366013162433818</v>
+        <v>0.01489605554615595</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.72440700000001</v>
+        <v>24.282086</v>
       </c>
       <c r="N7">
-        <v>119.173221</v>
+        <v>72.84625800000001</v>
       </c>
       <c r="O7">
-        <v>0.4718104890356355</v>
+        <v>0.7019069247021911</v>
       </c>
       <c r="P7">
-        <v>0.5693086397548175</v>
+        <v>0.7690865060256457</v>
       </c>
       <c r="Q7">
-        <v>21.610501135008</v>
+        <v>13.20971379291733</v>
       </c>
       <c r="R7">
-        <v>194.494510215072</v>
+        <v>118.887424136256</v>
       </c>
       <c r="S7">
-        <v>0.005776098950078423</v>
+        <v>0.009259696633809919</v>
       </c>
       <c r="T7">
-        <v>0.007776830953923734</v>
+        <v>0.01145635531355702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.632032</v>
       </c>
       <c r="I8">
-        <v>0.01224241318136986</v>
+        <v>0.01319220014496747</v>
       </c>
       <c r="J8">
-        <v>0.01366013162433818</v>
+        <v>0.01489605554615595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.398029</v>
       </c>
       <c r="O8">
-        <v>0.01345290251278239</v>
+        <v>0.03274155942833552</v>
       </c>
       <c r="P8">
-        <v>0.01623290242224319</v>
+        <v>0.0358752573259675</v>
       </c>
       <c r="Q8">
         <v>0.6161880072142222</v>
@@ -948,10 +948,10 @@
         <v>5.545692064928</v>
       </c>
       <c r="S8">
-        <v>0.0001646959910501708</v>
+        <v>0.0004319332050369489</v>
       </c>
       <c r="T8">
-        <v>0.00022174358373288</v>
+        <v>0.0005343998258602501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.632032</v>
       </c>
       <c r="I9">
-        <v>0.01224241318136986</v>
+        <v>0.01319220014496747</v>
       </c>
       <c r="J9">
-        <v>0.01366013162433818</v>
+        <v>0.01489605554615595</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05956966666666667</v>
+        <v>0.08263666666666666</v>
       </c>
       <c r="N9">
-        <v>0.178709</v>
+        <v>0.24791</v>
       </c>
       <c r="O9">
-        <v>0.0007075144900637483</v>
+        <v>0.00238872593432212</v>
       </c>
       <c r="P9">
-        <v>0.0008537201298095625</v>
+        <v>0.002617351130223021</v>
       </c>
       <c r="Q9">
-        <v>0.03240653407644444</v>
+        <v>0.04495522812444444</v>
       </c>
       <c r="R9">
-        <v>0.291658806688</v>
+        <v>0.40459705312</v>
       </c>
       <c r="S9">
-        <v>8.661684719166603E-06</v>
+        <v>3.151255061705183E-05</v>
       </c>
       <c r="T9">
-        <v>1.16619293435457E-05</v>
+        <v>3.898820781959618E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.632032</v>
       </c>
       <c r="I10">
-        <v>0.01224241318136986</v>
+        <v>0.01319220014496747</v>
       </c>
       <c r="J10">
-        <v>0.01366013162433818</v>
+        <v>0.01489605554615595</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.257328</v>
+        <v>9.065459499999999</v>
       </c>
       <c r="N10">
-        <v>86.514656</v>
+        <v>18.130919</v>
       </c>
       <c r="O10">
-        <v>0.513771321446155</v>
+        <v>0.2620495124948187</v>
       </c>
       <c r="P10">
-        <v>0.4132936972997982</v>
+        <v>0.1914201982035095</v>
       </c>
       <c r="Q10">
-        <v>23.53244784349867</v>
+        <v>4.931706666234666</v>
       </c>
       <c r="R10">
-        <v>141.194687060992</v>
+        <v>29.59023999740799</v>
       </c>
       <c r="S10">
-        <v>0.006289800797882217</v>
+        <v>0.003457009616722803</v>
       </c>
       <c r="T10">
-        <v>0.005645646304624623</v>
+        <v>0.002851405905095659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.632032</v>
       </c>
       <c r="I11">
-        <v>0.01224241318136986</v>
+        <v>0.01319220014496747</v>
       </c>
       <c r="J11">
-        <v>0.01366013162433818</v>
+        <v>0.01489605554615595</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.02170333333333333</v>
+        <v>0.03159433333333334</v>
       </c>
       <c r="N11">
-        <v>0.06511</v>
+        <v>0.09478300000000001</v>
       </c>
       <c r="O11">
-        <v>0.0002577725153632478</v>
+        <v>0.0009132774403325944</v>
       </c>
       <c r="P11">
-        <v>0.0003110403933316207</v>
+        <v>0.001000687314654224</v>
       </c>
       <c r="Q11">
-        <v>0.01180684483555556</v>
+        <v>0.01718765433955556</v>
       </c>
       <c r="R11">
-        <v>0.10626160352</v>
+        <v>0.154688889056</v>
       </c>
       <c r="S11">
-        <v>3.155757639877889E-06</v>
+        <v>1.204813878075117E-05</v>
       </c>
       <c r="T11">
-        <v>4.248852713395858E-06</v>
+        <v>1.490629382342296E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.19106</v>
+        <v>0.276381</v>
       </c>
       <c r="H12">
-        <v>0.57318</v>
+        <v>0.829143</v>
       </c>
       <c r="I12">
-        <v>0.004299613235094394</v>
+        <v>0.006702209518440059</v>
       </c>
       <c r="J12">
-        <v>0.004797524953210573</v>
+        <v>0.007567841919586371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.72440700000001</v>
+        <v>24.282086</v>
       </c>
       <c r="N12">
-        <v>119.173221</v>
+        <v>72.84625800000001</v>
       </c>
       <c r="O12">
-        <v>0.4718104890356355</v>
+        <v>0.7019069247021911</v>
       </c>
       <c r="P12">
-        <v>0.5693086397548175</v>
+        <v>0.7690865060256457</v>
       </c>
       <c r="Q12">
-        <v>7.589745201420001</v>
+        <v>6.711107210766</v>
       </c>
       <c r="R12">
-        <v>68.30770681278001</v>
+        <v>60.39996489689401</v>
       </c>
       <c r="S12">
-        <v>0.002028602623113977</v>
+        <v>0.004704327271798015</v>
       </c>
       <c r="T12">
-        <v>0.002731272405302106</v>
+        <v>0.005820325100089097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.19106</v>
+        <v>0.276381</v>
       </c>
       <c r="H13">
-        <v>0.57318</v>
+        <v>0.829143</v>
       </c>
       <c r="I13">
-        <v>0.004299613235094394</v>
+        <v>0.006702209518440059</v>
       </c>
       <c r="J13">
-        <v>0.004797524953210573</v>
+        <v>0.007567841919586371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.398029</v>
       </c>
       <c r="O13">
-        <v>0.01345290251278239</v>
+        <v>0.03274155942833552</v>
       </c>
       <c r="P13">
-        <v>0.01623290242224319</v>
+        <v>0.0358752573259675</v>
       </c>
       <c r="Q13">
-        <v>0.2164091402466667</v>
+        <v>0.313050217683</v>
       </c>
       <c r="R13">
-        <v>1.94768226222</v>
+        <v>2.817451959147</v>
       </c>
       <c r="S13">
-        <v>5.784227769439381E-05</v>
+        <v>0.0002194407912491612</v>
       </c>
       <c r="T13">
-        <v>7.787775443374405E-05</v>
+        <v>0.0002714982762674049</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.19106</v>
+        <v>0.276381</v>
       </c>
       <c r="H14">
-        <v>0.57318</v>
+        <v>0.829143</v>
       </c>
       <c r="I14">
-        <v>0.004299613235094394</v>
+        <v>0.006702209518440059</v>
       </c>
       <c r="J14">
-        <v>0.004797524953210573</v>
+        <v>0.007567841919586371</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05956966666666667</v>
+        <v>0.08263666666666666</v>
       </c>
       <c r="N14">
-        <v>0.178709</v>
+        <v>0.24791</v>
       </c>
       <c r="O14">
-        <v>0.0007075144900637483</v>
+        <v>0.00238872593432212</v>
       </c>
       <c r="P14">
-        <v>0.0008537201298095625</v>
+        <v>0.002617351130223021</v>
       </c>
       <c r="Q14">
-        <v>0.01138138051333333</v>
+        <v>0.02283920457</v>
       </c>
       <c r="R14">
-        <v>0.10243242462</v>
+        <v>0.20555284113</v>
       </c>
       <c r="S14">
-        <v>3.042038665499153E-06</v>
+        <v>1.600974169395833E-05</v>
       </c>
       <c r="T14">
-        <v>4.095743625819546E-06</v>
+        <v>1.980769960157855E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.19106</v>
+        <v>0.276381</v>
       </c>
       <c r="H15">
-        <v>0.57318</v>
+        <v>0.829143</v>
       </c>
       <c r="I15">
-        <v>0.004299613235094394</v>
+        <v>0.006702209518440059</v>
       </c>
       <c r="J15">
-        <v>0.004797524953210573</v>
+        <v>0.007567841919586371</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.257328</v>
+        <v>9.065459499999999</v>
       </c>
       <c r="N15">
-        <v>86.514656</v>
+        <v>18.130919</v>
       </c>
       <c r="O15">
-        <v>0.513771321446155</v>
+        <v>0.2620495124948187</v>
       </c>
       <c r="P15">
-        <v>0.4132936972997982</v>
+        <v>0.1914201982035095</v>
       </c>
       <c r="Q15">
-        <v>8.26474508768</v>
+        <v>2.5055207620695</v>
       </c>
       <c r="R15">
-        <v>49.58847052608</v>
+        <v>15.033124572417</v>
       </c>
       <c r="S15">
-        <v>0.002209017973501824</v>
+        <v>0.001756310736945351</v>
       </c>
       <c r="T15">
-        <v>0.001982786825800439</v>
+        <v>0.001448637800220051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.19106</v>
+        <v>0.276381</v>
       </c>
       <c r="H16">
-        <v>0.57318</v>
+        <v>0.829143</v>
       </c>
       <c r="I16">
-        <v>0.004299613235094394</v>
+        <v>0.006702209518440059</v>
       </c>
       <c r="J16">
-        <v>0.004797524953210573</v>
+        <v>0.007567841919586371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.02170333333333333</v>
+        <v>0.03159433333333334</v>
       </c>
       <c r="N16">
-        <v>0.06511</v>
+        <v>0.09478300000000001</v>
       </c>
       <c r="O16">
-        <v>0.0002577725153632478</v>
+        <v>0.0009132774403325944</v>
       </c>
       <c r="P16">
-        <v>0.0003110403933316207</v>
+        <v>0.001000687314654224</v>
       </c>
       <c r="Q16">
-        <v>0.004146638866666667</v>
+        <v>0.008732073441</v>
       </c>
       <c r="R16">
-        <v>0.0373197498</v>
+        <v>0.078588660969</v>
       </c>
       <c r="S16">
-        <v>1.108322118699393E-06</v>
+        <v>6.120976753573687E-06</v>
       </c>
       <c r="T16">
-        <v>1.492224048464882E-06</v>
+        <v>7.573043408238552E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.83556</v>
+        <v>14.150536</v>
       </c>
       <c r="H17">
-        <v>27.67112</v>
+        <v>28.301072</v>
       </c>
       <c r="I17">
-        <v>0.311355369470023</v>
+        <v>0.3431489757625478</v>
       </c>
       <c r="J17">
-        <v>0.231607677663708</v>
+        <v>0.2583125456656235</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.72440700000001</v>
+        <v>24.282086</v>
       </c>
       <c r="N17">
-        <v>119.173221</v>
+        <v>72.84625800000001</v>
       </c>
       <c r="O17">
-        <v>0.4718104890356355</v>
+        <v>0.7019069247021911</v>
       </c>
       <c r="P17">
-        <v>0.5693086397548175</v>
+        <v>0.7690865060256457</v>
       </c>
       <c r="Q17">
-        <v>549.6094165129201</v>
+        <v>343.604532098096</v>
       </c>
       <c r="R17">
-        <v>3297.65649907752</v>
+        <v>2061.627192588576</v>
       </c>
       <c r="S17">
-        <v>0.1469007291335226</v>
+        <v>0.2408586422921966</v>
       </c>
       <c r="T17">
-        <v>0.1318562519274978</v>
+        <v>0.1986646932085644</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.83556</v>
+        <v>14.150536</v>
       </c>
       <c r="H18">
-        <v>27.67112</v>
+        <v>28.301072</v>
       </c>
       <c r="I18">
-        <v>0.311355369470023</v>
+        <v>0.3431489757625478</v>
       </c>
       <c r="J18">
-        <v>0.231607677663708</v>
+        <v>0.2583125456656235</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.398029</v>
       </c>
       <c r="O18">
-        <v>0.01345290251278239</v>
+        <v>0.03274155942833552</v>
       </c>
       <c r="P18">
-        <v>0.01623290242224319</v>
+        <v>0.0358752573259675</v>
       </c>
       <c r="Q18">
-        <v>15.67121137041334</v>
+        <v>16.02797723118133</v>
       </c>
       <c r="R18">
-        <v>94.02726822248002</v>
+        <v>96.167863387088</v>
       </c>
       <c r="S18">
-        <v>0.004188633432311563</v>
+        <v>0.01123523258270192</v>
       </c>
       <c r="T18">
-        <v>0.003759664831757325</v>
+        <v>0.009267029046279972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.83556</v>
+        <v>14.150536</v>
       </c>
       <c r="H19">
-        <v>27.67112</v>
+        <v>28.301072</v>
       </c>
       <c r="I19">
-        <v>0.311355369470023</v>
+        <v>0.3431489757625478</v>
       </c>
       <c r="J19">
-        <v>0.231607677663708</v>
+        <v>0.2583125456656235</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05956966666666667</v>
+        <v>0.08263666666666666</v>
       </c>
       <c r="N19">
-        <v>0.178709</v>
+        <v>0.24791</v>
       </c>
       <c r="O19">
-        <v>0.0007075144900637483</v>
+        <v>0.00238872593432212</v>
       </c>
       <c r="P19">
-        <v>0.0008537201298095625</v>
+        <v>0.002617351130223021</v>
       </c>
       <c r="Q19">
-        <v>0.8241796973466667</v>
+        <v>1.169353126586667</v>
       </c>
       <c r="R19">
-        <v>4.945078184080001</v>
+        <v>7.016118759519999</v>
       </c>
       <c r="S19">
-        <v>0.0002202884354591933</v>
+        <v>0.0008196888577400703</v>
       </c>
       <c r="T19">
-        <v>0.0001977281366399521</v>
+        <v>0.0006760946333487054</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83556</v>
+        <v>14.150536</v>
       </c>
       <c r="H20">
-        <v>27.67112</v>
+        <v>28.301072</v>
       </c>
       <c r="I20">
-        <v>0.311355369470023</v>
+        <v>0.3431489757625478</v>
       </c>
       <c r="J20">
-        <v>0.231607677663708</v>
+        <v>0.2583125456656235</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>43.257328</v>
+        <v>9.065459499999999</v>
       </c>
       <c r="N20">
-        <v>86.514656</v>
+        <v>18.130919</v>
       </c>
       <c r="O20">
-        <v>0.513771321446155</v>
+        <v>0.2620495124948187</v>
       </c>
       <c r="P20">
-        <v>0.4132936972997982</v>
+        <v>0.1914201982035095</v>
       </c>
       <c r="Q20">
-        <v>598.4893569836801</v>
+        <v>128.281111011292</v>
       </c>
       <c r="R20">
-        <v>2393.95742793472</v>
+        <v>513.1244440451679</v>
       </c>
       <c r="S20">
-        <v>0.1599654596119696</v>
+        <v>0.08992202181167198</v>
       </c>
       <c r="T20">
-        <v>0.09572199342465376</v>
+        <v>0.04944623868976675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83556</v>
+        <v>14.150536</v>
       </c>
       <c r="H21">
-        <v>27.67112</v>
+        <v>28.301072</v>
       </c>
       <c r="I21">
-        <v>0.311355369470023</v>
+        <v>0.3431489757625478</v>
       </c>
       <c r="J21">
-        <v>0.231607677663708</v>
+        <v>0.2583125456656235</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.02170333333333333</v>
+        <v>0.03159433333333334</v>
       </c>
       <c r="N21">
-        <v>0.06511</v>
+        <v>0.09478300000000001</v>
       </c>
       <c r="O21">
-        <v>0.0002577725153632478</v>
+        <v>0.0009132774403325944</v>
       </c>
       <c r="P21">
-        <v>0.0003110403933316207</v>
+        <v>0.001000687314654224</v>
       </c>
       <c r="Q21">
-        <v>0.3002777705333334</v>
+        <v>0.4470767512293333</v>
       </c>
       <c r="R21">
-        <v>1.8016666232</v>
+        <v>2.682460507376</v>
       </c>
       <c r="S21">
-        <v>8.02588567601412E-05</v>
+        <v>0.0003133902182371711</v>
       </c>
       <c r="T21">
-        <v>7.203934315914297E-05</v>
+        <v>0.0002584900876636293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.18507</v>
+        <v>0.3813046666666667</v>
       </c>
       <c r="H22">
-        <v>0.55521</v>
+        <v>1.143914</v>
       </c>
       <c r="I22">
-        <v>0.004164814306599599</v>
+        <v>0.009246597147991168</v>
       </c>
       <c r="J22">
-        <v>0.00464711579132566</v>
+        <v>0.01044085317201222</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.72440700000001</v>
+        <v>24.282086</v>
       </c>
       <c r="N22">
-        <v>119.173221</v>
+        <v>72.84625800000001</v>
       </c>
       <c r="O22">
-        <v>0.4718104890356355</v>
+        <v>0.7019069247021911</v>
       </c>
       <c r="P22">
-        <v>0.5693086397548175</v>
+        <v>0.7690865060256457</v>
       </c>
       <c r="Q22">
-        <v>7.351796003490001</v>
+        <v>9.258872708201334</v>
       </c>
       <c r="R22">
-        <v>66.16616403141001</v>
+        <v>83.32985437381201</v>
       </c>
       <c r="S22">
-        <v>0.001965003074739368</v>
+        <v>0.006490250568106532</v>
       </c>
       <c r="T22">
-        <v>0.002645643169942744</v>
+        <v>0.008029919285989656</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.18507</v>
+        <v>0.3813046666666667</v>
       </c>
       <c r="H23">
-        <v>0.55521</v>
+        <v>1.143914</v>
       </c>
       <c r="I23">
-        <v>0.004164814306599599</v>
+        <v>0.009246597147991168</v>
       </c>
       <c r="J23">
-        <v>0.00464711579132566</v>
+        <v>0.01044085317201222</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.398029</v>
       </c>
       <c r="O23">
-        <v>0.01345290251278239</v>
+        <v>0.03274155942833552</v>
       </c>
       <c r="P23">
-        <v>0.01623290242224319</v>
+        <v>0.0358752573259675</v>
       </c>
       <c r="Q23">
-        <v>0.20962440901</v>
+        <v>0.4318947717228889</v>
       </c>
       <c r="R23">
-        <v>1.88661968109</v>
+        <v>3.887052945506</v>
       </c>
       <c r="S23">
-        <v>5.602884085052581E-05</v>
+        <v>0.0003027480100308305</v>
       </c>
       <c r="T23">
-        <v>7.543617718545488E-05</v>
+        <v>0.0003745682942485822</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.18507</v>
+        <v>0.3813046666666667</v>
       </c>
       <c r="H24">
-        <v>0.55521</v>
+        <v>1.143914</v>
       </c>
       <c r="I24">
-        <v>0.004164814306599599</v>
+        <v>0.009246597147991168</v>
       </c>
       <c r="J24">
-        <v>0.00464711579132566</v>
+        <v>0.01044085317201222</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.05956966666666667</v>
+        <v>0.08263666666666666</v>
       </c>
       <c r="N24">
-        <v>0.178709</v>
+        <v>0.24791</v>
       </c>
       <c r="O24">
-        <v>0.0007075144900637483</v>
+        <v>0.00238872593432212</v>
       </c>
       <c r="P24">
-        <v>0.0008537201298095625</v>
+        <v>0.002617351130223021</v>
       </c>
       <c r="Q24">
-        <v>0.01102455821</v>
+        <v>0.03150974663777778</v>
       </c>
       <c r="R24">
-        <v>0.09922102389</v>
+        <v>0.28358771974</v>
       </c>
       <c r="S24">
-        <v>2.946666470344019E-06</v>
+        <v>2.208758641163545E-05</v>
       </c>
       <c r="T24">
-        <v>3.96733629661061E-06</v>
+        <v>2.732737885025879E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.18507</v>
+        <v>0.3813046666666667</v>
       </c>
       <c r="H25">
-        <v>0.55521</v>
+        <v>1.143914</v>
       </c>
       <c r="I25">
-        <v>0.004164814306599599</v>
+        <v>0.009246597147991168</v>
       </c>
       <c r="J25">
-        <v>0.00464711579132566</v>
+        <v>0.01044085317201222</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.257328</v>
+        <v>9.065459499999999</v>
       </c>
       <c r="N25">
-        <v>86.514656</v>
+        <v>18.130919</v>
       </c>
       <c r="O25">
-        <v>0.513771321446155</v>
+        <v>0.2620495124948187</v>
       </c>
       <c r="P25">
-        <v>0.4132936972997982</v>
+        <v>0.1914201982035095</v>
       </c>
       <c r="Q25">
-        <v>8.00563369296</v>
+        <v>3.456702012827666</v>
       </c>
       <c r="R25">
-        <v>48.03380215776</v>
+        <v>20.740212076966</v>
       </c>
       <c r="S25">
-        <v>0.002139762149879528</v>
+        <v>0.002423066274867066</v>
       </c>
       <c r="T25">
-        <v>0.001920623667177259</v>
+        <v>0.00199859018360032</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.18507</v>
+        <v>0.3813046666666667</v>
       </c>
       <c r="H26">
-        <v>0.55521</v>
+        <v>1.143914</v>
       </c>
       <c r="I26">
-        <v>0.004164814306599599</v>
+        <v>0.009246597147991168</v>
       </c>
       <c r="J26">
-        <v>0.00464711579132566</v>
+        <v>0.01044085317201222</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.02170333333333333</v>
+        <v>0.03159433333333334</v>
       </c>
       <c r="N26">
-        <v>0.06511</v>
+        <v>0.09478300000000001</v>
       </c>
       <c r="O26">
-        <v>0.0002577725153632478</v>
+        <v>0.0009132774403325944</v>
       </c>
       <c r="P26">
-        <v>0.0003110403933316207</v>
+        <v>0.001000687314654224</v>
       </c>
       <c r="Q26">
-        <v>0.0040166359</v>
+        <v>0.01204706674022222</v>
       </c>
       <c r="R26">
-        <v>0.0361497231</v>
+        <v>0.108423600662</v>
       </c>
       <c r="S26">
-        <v>1.073574659833019E-06</v>
+        <v>8.444708575104042E-06</v>
       </c>
       <c r="T26">
-        <v>1.445440723591519E-06</v>
+        <v>1.044802932339994E-05</v>
       </c>
     </row>
   </sheetData>
